--- a/medicine/Enfance/Véronique_Bergen/Véronique_Bergen.xlsx
+++ b/medicine/Enfance/Véronique_Bergen/Véronique_Bergen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Bergen</t>
+          <t>Véronique_Bergen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Véronique Bergen, née le 3 avril 1962 à Bruxelles (province de Brabant), est une écrivaine et philosophe belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Bergen</t>
+          <t>Véronique_Bergen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Véronique Bergen naît le 3 avril 1962 à Bruxelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Véronique Bergen naît le 3 avril 1962 à Bruxelles.
 Elle est licenciée en philologie romane et en philosophie de l’Université libre de Bruxelles et docteur en philosophie de l'université Paris 8, membre de rédaction de la revue Lignes, travaille à l'interface de la philosophie, du roman et de la poésie.
 Sa rencontre avec Pierre-Yves Soucy, fondateur de La Lettre volée, à Bruxelles, lui permet de publier ses premiers recueils de poésies chez lui : Brûler le père quand l’enfant dort, et Encres. Suivront, chez L’Ambedui et chez Le Cormier, toujours avec Pierre-Yves Soucy, d’autres écrits.
 Ses travaux philosophiques portent notamment sur Deleuze, Badiou, Sartre. Elle est élue le 10 février 2018 à l'Académie Royale de Langue et de Littérature françaises de Belgique au siège de Philippe Jones.
-Critique littéraire
-Depuis 2015, Véronique Bergen collabore régulièrement à La Nouvelle Quinzaine, qui poursuit La Quinzaine littéraire, créée par François Erval et Maurice Nadeau en 1966. Elle y signe des articles de critique littéraire et des portraits d'intellectuels ainsi que des entretiens[2].
-Elle collabore à diverses revues, Art press, L'Art même, Flux News, Le Carnet et les Instants, Septentrion, Lignes, Diacritik et Edwarda.
 </t>
         </is>
       </c>
@@ -530,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_Bergen</t>
+          <t>Véronique_Bergen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +556,59 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Critique littéraire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2015, Véronique Bergen collabore régulièrement à La Nouvelle Quinzaine, qui poursuit La Quinzaine littéraire, créée par François Erval et Maurice Nadeau en 1966. Elle y signe des articles de critique littéraire et des portraits d'intellectuels ainsi que des entretiens.
+Elle collabore à diverses revues, Art press, L'Art même, Flux News, Le Carnet et les Instants, Septentrion, Lignes, Diacritik et Edwarda.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Essais
-Jean Genet. Entre mythe et réalité, Bruxelles, De Boeck Université, coll. « Culture et communication », 1993, 429 p. (ISBN 978-2-8041-1715-3), — Prix Franz De Wever 1999[3]
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Genet. Entre mythe et réalité, Bruxelles, De Boeck Université, coll. « Culture et communication », 1993, 429 p. (ISBN 978-2-8041-1715-3), — Prix Franz De Wever 1999
 L'Ontologie de Gilles Deleuze, Paris, L'Harmattan, coll. « La Philosophie en commun », 1993, 793 p. (ISBN 978-2-7475-0398-3, lire en ligne)
 Résistances philosophiques, Paris, Presses universitaires de France, coll. « Travaux pratiques », 2009, 160 p. (ISBN 978-2-13-057448-4)
-Le Corps glorieux de la top-modèle, Nouvelles éditions Lignes, 2013  (ISBN 978-2-35526-122-0)[4]
+Le Corps glorieux de la top-modèle, Nouvelles éditions Lignes, 2013  (ISBN 978-2-35526-122-0)
 Comprendre Sartre, ill. de Mickey OC, Max Milo, 2015.
 Fétichismes, Éd. Kimé, coll. « Bifurcations », 2016.
 Djelem, djelem. Les Roms entre stigmatisation et résistance, Éd. Centre d'Action Laïque, coll. « Liberté, j'écris ton nom », 2016.
@@ -571,20 +625,54 @@
 Marolles. La Cour des chats, CFC Éditions, 2022.
 Marianne Faithfull. Broken English, Densité, 2023.
 Guido Crepax. L'axiome d'éros, La Lettre volée, 2023.
-Marguerite Yourcenar. Première académicienne française, ill. Hugues Hausman, Éd. Lamiroy, coll. « L'Article » no 42, 2024  (ISBN 978-2-87595-904-1).
-Romans
-Rhapsodies pour l'ange bleu, Avin, Belgique, Éditions Luce Wilquin, coll. « Sméraldine », 2003, 304 p. (ISBN 978-2-88253-214-5)
+Marguerite Yourcenar. Première académicienne française, ill. Hugues Hausman, Éd. Lamiroy, coll. « L'Article » no 42, 2024  (ISBN 978-2-87595-904-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rhapsodies pour l'ange bleu, Avin, Belgique, Éditions Luce Wilquin, coll. « Sméraldine », 2003, 304 p. (ISBN 978-2-88253-214-5)
 Aquarelles, Avin, Belgique, Éditions Luce Wilquin, coll. « Sméraldine », 2005, 272 p. (ISBN 978-2-88253-274-9)
-Kaspar Hauser : Ou la phrase préférée du vent, Paris, Éditions Denoël, coll. « Roman français », 2008, 256 p. (ISBN 978-2-207-25745-6)prix Félix Denayer[5] de l'Académie royale de langue et de littérature françaises de Belgique, prix triennal de la Ville de Tournai
+Kaspar Hauser : Ou la phrase préférée du vent, Paris, Éditions Denoël, coll. « Roman français », 2008, 256 p. (ISBN 978-2-207-25745-6)prix Félix Denayer de l'Académie royale de langue et de littérature françaises de Belgique, prix triennal de la Ville de Tournai
 Fleuve de cendres, Paris, Éditions Denoël, coll. « Roman français », 2008, 316 p. (ISBN 978-2-207-26072-2)
-Requiem pour le roi : Mémoires de Louis II de Bavière, Bruxelles, Belgique / Lormont, France, Éditions la Muette / Le Bord de l'eau, 2011, 235 p. (ISBN 978-2-35687-110-7)Prix Berheim du roman 2012[6]
+Requiem pour le roi : Mémoires de Louis II de Bavière, Bruxelles, Belgique / Lormont, France, Éditions la Muette / Le Bord de l'eau, 2011, 235 p. (ISBN 978-2-35687-110-7)Prix Berheim du roman 2012
 Aujourd'hui la révolution. Fragments d'Ulrike M., Villeurbanne, France, Éditions Golias, 2011, 130 p. (ISBN 978-2-35472-244-9)
 Voyage en Mylénie, Lormont/Bruxelles, France/Belgique, Le  Bord de l'eau, coll. « La Muette », 2012, 224 p.  (ISBN 978-2-35687-182-4).
 Edie. La danse d'Icare, Al Dante, 2013.
 Marilyn, naissance année zéro, Al Dante, 2014, Prix Sad Festival les Voix mortes 2015.
 Le Cri de la poupée, Al Dante, 2015.
 Janis Joplin. Voix noire sur fond blanc, Al Dante, 2016.
-Émeutes en milieu urbain, coll. « Opuscule »[7], Bruxelles, Éditions Lamiroy, 2017, 44 p.  (ISBN 978-2-87595-095-6)
+Émeutes en milieu urbain, coll. « Opuscule », Bruxelles, Éditions Lamiroy, 2017, 44 p.  (ISBN 978-2-87595-095-6)
 Jamais, Éd. Tinbad, 2017.
 Premières fois, Éd. Edwarda, 2017.
 Tous doivent être sauvés ou aucun, OnLit, 2018
@@ -595,9 +683,43 @@
 Icône H., Hélène de Troie, Onlit, 2021.
 Ecume, Onlit, 2023, nouvelle co-édition Les Equateur/Onlit, 2023.
 Les Danses de Roberto Succo, Éd. Maelström, coll. « Bruxelles se conte », 2023.
-Clandestine, Lamiroy, 2024, 291 p.  (ISBN 978-2-87595-908-9).
-Poésie
-Brûler le père quand l'enfant dort, Bruxelles, Belgique, Éditions La Lettre volée, 1994, 144 p. (ISBN 978-2-87317-005-9)
+Clandestine, Lamiroy, 2024, 291 p.  (ISBN 978-2-87595-908-9).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brûler le père quand l'enfant dort, Bruxelles, Belgique, Éditions La Lettre volée, 1994, 144 p. (ISBN 978-2-87317-005-9)
 Encres, Bruxelles, Belgique, avec des peintures d'Helena Belzer, La Lettre volée, 1994, 64 p. (ISBN 978-2-87317-025-7)
 L'Obsidienne rêve l'obscur, Bruxelles, Belgique, ill. de Christine Ravaux, Éditions de l'Ambedui, coll. « Poésie du Lendit », 1998, 130 p.
 Habiter l'enfui, Bruxelles, Belgique, ill. de Maria Desmée, Éditions de l'Ambedui, coll. « Poésie du Lendit », 2003, 115 p. (ISBN 978-2-930345-29-1)
@@ -613,19 +735,189 @@
 Variations sur l'animal central, avec Aurélien Barrau et Mathieu Brosseau, La Lettre volée, 2018.
 Alphabets des loups, Éd. Le Cormier, 2018.
 Ludisme précédé de Gainsbourg et Bambou, Le Cormier, 2021.
-Avant, pendant et après, avec les peintures d'Helena Belzer, La Lettre volée, 2023.
-Littérature Jeunesse
-Un abécédaire spectaculaire, dessins de Gundi Falkensteiner, Poulailler Production, 2009, 58 p.
-Préfaces
-Deux préfaces à Une Chambre en ville, photos de Sam Guelimi, Éd. Edwarda, 2011.
-Avant-propos à La Malmorte : pièce en un acte et sept tableaux de Michèle Goslar ; frontispice de Guy-Rémy Vandenbulcke, Bruxelles, Éditions de l'Ambedui, 2001
-Texte théâtral
-Descends en moi, Créon, mise en scène d’un texte théâtral autour d’Antigone, 2012, Théâtre de Mons.
-Ce qu'on ne peut barrir, il faut le taire, Les Intrépides, 2019.
-Bande dessinée
-29 L'Anarchie - Théories et pratiques libertaires, Le Lombard, coll. « La Petite Bédéthèque des Savoirs », Bruxelles, 25 octobre 2019Scénario : Véronique Bergen - Dessin et couleurs : Winshluss -  (ISBN 978-2-8036-7578-4)
-Articles
-Jacques De Decker - L'immortel de l'Académie royale de Belgique, Lamiroy, coll. « L'article »,  (ISBN 978-2-87595-369-8), 40 pp., 2020, [1].</t>
+Avant, pendant et après, avec les peintures d'Helena Belzer, La Lettre volée, 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature Jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Un abécédaire spectaculaire, dessins de Gundi Falkensteiner, Poulailler Production, 2009, 58 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Préfaces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Deux préfaces à Une Chambre en ville, photos de Sam Guelimi, Éd. Edwarda, 2011.
+Avant-propos à La Malmorte : pièce en un acte et sept tableaux de Michèle Goslar ; frontispice de Guy-Rémy Vandenbulcke, Bruxelles, Éditions de l'Ambedui, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Texte théâtral</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Descends en moi, Créon, mise en scène d’un texte théâtral autour d’Antigone, 2012, Théâtre de Mons.
+Ce qu'on ne peut barrir, il faut le taire, Les Intrépides, 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>29 L'Anarchie - Théories et pratiques libertaires, Le Lombard, coll. « La Petite Bédéthèque des Savoirs », Bruxelles, 25 octobre 2019Scénario : Véronique Bergen - Dessin et couleurs : Winshluss -  (ISBN 978-2-8036-7578-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Véronique_Bergen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_Bergen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jacques De Decker - L'immortel de l'Académie royale de Belgique, Lamiroy, coll. « L'article »,  (ISBN 978-2-87595-369-8), 40 pp., 2020, .</t>
         </is>
       </c>
     </row>
